--- a/LogReg.xlsx
+++ b/LogReg.xlsx
@@ -8,15 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B62ACC-DD5A-4385-8AEB-A4DFBAA7A8CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB01F04-B618-4AAC-98C2-FD36138EDC53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3780" activeTab="1" xr2:uid="{B26BEBA7-2F58-43D4-BDC8-3BBFB4126BB4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3780" activeTab="3" xr2:uid="{B26BEBA7-2F58-43D4-BDC8-3BBFB4126BB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="classification report" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Decision Trees" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="FN">'classification report'!$E$16</definedName>
+    <definedName name="FP">'classification report'!$E$15</definedName>
+    <definedName name="TP">'classification report'!$E$14</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="65">
   <si>
     <t>-(Beta0+Beta1x)</t>
   </si>
@@ -50,9 +56,6 @@
     <t>Accuracy</t>
   </si>
   <si>
-    <t>Tp+Tn/(TP+TN+FN+FP)</t>
-  </si>
-  <si>
     <t>Precision</t>
   </si>
   <si>
@@ -75,13 +78,166 @@
   </si>
   <si>
     <t>No - FP</t>
+  </si>
+  <si>
+    <t>-ve</t>
+  </si>
+  <si>
+    <t>+ve</t>
+  </si>
+  <si>
+    <t>true neg</t>
+  </si>
+  <si>
+    <t>true pos</t>
+  </si>
+  <si>
+    <t>False +</t>
+  </si>
+  <si>
+    <t>False -ve</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>Class 0</t>
+  </si>
+  <si>
+    <t>0 becoming 1 is FP</t>
+  </si>
+  <si>
+    <t>1 becoming 0 is FN</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>Class 1</t>
+  </si>
+  <si>
+    <t>F1 Score</t>
+  </si>
+  <si>
+    <t>Macro Avg</t>
+  </si>
+  <si>
+    <t>Wt Avg</t>
+  </si>
+  <si>
+    <t>Weather</t>
+  </si>
+  <si>
+    <t>Play Tennis</t>
+  </si>
+  <si>
+    <t>Sunny</t>
+  </si>
+  <si>
+    <t>Overcast</t>
+  </si>
+  <si>
+    <t>Rainy</t>
+  </si>
+  <si>
+    <t>Inf Gain = Entropy(Tgt) - Entropy(Predictor)</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Count of Tgt</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Entopy of Play(tgt)</t>
+  </si>
+  <si>
+    <t>Entropy-Yes</t>
+  </si>
+  <si>
+    <t>Total Entropy</t>
+  </si>
+  <si>
+    <t>Entropy-No</t>
+  </si>
+  <si>
+    <t>Entropy of Weather (pred)</t>
+  </si>
+  <si>
+    <t>Entropy of Play when Weather is Sunny</t>
+  </si>
+  <si>
+    <t>=-(2/5)*Log(2/5, 2)</t>
+  </si>
+  <si>
+    <t>=-(3/5)*Log(3/5, 2)</t>
+  </si>
+  <si>
+    <t>Entropy of Play when Weather is Overcast</t>
+  </si>
+  <si>
+    <t>Entropy of Play when Weather is Rainy</t>
+  </si>
+  <si>
+    <t>Entropy - Tgt</t>
+  </si>
+  <si>
+    <t>Entropy - Sunny</t>
+  </si>
+  <si>
+    <t>Entropy - Ocast</t>
+  </si>
+  <si>
+    <t>Entropy - Rainy</t>
+  </si>
+  <si>
+    <t>Entropy</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Conditional Entropy -  E(Play|Weather = {Sunny, Rainy})</t>
+  </si>
+  <si>
+    <t>E(Play | W = Sunny)</t>
+  </si>
+  <si>
+    <t>E(Play | W = Ocast)</t>
+  </si>
+  <si>
+    <t>E(Play | W = Rainy)</t>
+  </si>
+  <si>
+    <t>Inf Gain  = Entropy(Tgt) - Centropy of Pred(s)</t>
+  </si>
+  <si>
+    <t>Inf Gain</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="172" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,8 +252,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -122,6 +308,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -132,10 +324,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -143,9 +336,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -167,9 +357,49 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1192,16 +1422,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>27406</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>96345</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>338338</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>74450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>111597</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>422530</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>162036</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1224,8 +1454,250 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4897199" y="96345"/>
+          <a:off x="4599407" y="810174"/>
           <a:ext cx="3127812" cy="1559034"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>267136</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>56931</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>103145</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>109483</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="Measuring Performance: The Confusion Matrix – Glass Box">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD853657-0CC3-49F4-85DE-5EB5B61CF242}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3310757" y="56931"/>
+          <a:ext cx="1727871" cy="972207"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>258380</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>135758</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>389760</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30FE68EA-B404-4A2B-BD6D-BC7C012F8EC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5193863" y="1423275"/>
+          <a:ext cx="1348828" cy="359103"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>545041</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>134938</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>244742</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>25641</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Measuring Performance: The Confusion Matrix – Glass Box">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5D82DC9-4789-404A-86C3-44FE9FA69AAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3600979" y="1230313"/>
+          <a:ext cx="2755638" cy="1533766"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>35033</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>482328</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>100723</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4489B287-E32E-474C-BE75-8CF27F6643A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4659585" y="0"/>
+          <a:ext cx="3171226" cy="836447"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1923,96 +2395,290 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83956245-C00B-4D99-B84C-EB930D27B25A}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="9.6328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B1" s="5"/>
-      <c r="C1" s="6" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B1" s="4"/>
+      <c r="C1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B2" s="7"/>
-      <c r="C2" s="7">
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6">
         <v>0</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>0</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>69</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="4"/>
-      <c r="B4" s="7">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="13"/>
+      <c r="B4" s="6">
         <v>1</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>7</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D5">
         <f>SUM(C3:D4)</f>
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <f>(C3+D4)/D5</f>
         <v>0.81308411214953269</v>
       </c>
-      <c r="F6" t="s">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="10"/>
+      <c r="B7" s="9">
+        <f>E8/(SUM(E8:E9))</f>
+        <v>0.90789473684210531</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="17">
+        <f>E8/(SUM(E8,E10))</f>
+        <v>0.84146341463414631</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="9">
+        <f>(2*B7*B8)/SUM(B7:B8)</f>
+        <v>0.87341772151898744</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="3">
+        <v>13</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="3">
+        <v>18</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="D13" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="14"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="19">
+        <f>E14/(SUM(E14:E15))</f>
+        <v>0.58064516129032262</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="18">
+        <v>18</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0.91</v>
+      </c>
+      <c r="H14">
+        <v>0.84</v>
+      </c>
+      <c r="I14" s="9">
+        <f>B9</f>
+        <v>0.87341772151898744</v>
+      </c>
+      <c r="J14" s="15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15">
+        <f>TP/(TP+FN)</f>
+        <v>0.72</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="18">
+        <v>13</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H15">
+        <v>0.72</v>
+      </c>
+      <c r="I15" s="9">
+        <f>B16</f>
+        <v>0.64285714285714279</v>
+      </c>
+      <c r="J15" s="15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="9">
+        <f>(2*B14*B15)/SUM(B14:B15)</f>
+        <v>0.64285714285714279</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="18">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16">
+        <f>AVERAGE(G14:G15)</f>
+        <v>0.745</v>
+      </c>
+      <c r="H16">
+        <f>AVERAGE(H14:H15)</f>
+        <v>0.78</v>
+      </c>
+      <c r="I16" s="9">
+        <f>AVERAGE(I14:I15)</f>
+        <v>0.75813743218806517</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="18">
+        <v>69</v>
+      </c>
+      <c r="F17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="9">
+        <f>(G14*J14+G15*J15)/SUM(J14:J15)</f>
+        <v>0.83289719626168224</v>
+      </c>
+      <c r="H17" s="9">
+        <f>(H14*J14+H15*J15)/SUM(J14:J15)</f>
+        <v>0.81196261682242987</v>
+      </c>
+      <c r="I17" s="9">
+        <f>(I14*J14+I15*J15)/107</f>
+        <v>0.81954842743911716</v>
+      </c>
+      <c r="J17">
+        <f>SUM(J14:J15)</f>
+        <v>107</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A3:A4"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B7 B14" formulaRange="1"/>
+  </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F69B16D0-42D8-4521-8E75-75E88BF50061}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+    <sheetView topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2025,35 +2691,35 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="8">
+        <v>9</v>
+      </c>
+      <c r="F2" s="7">
         <v>2</v>
       </c>
       <c r="G2" s="2">
@@ -2065,22 +2731,22 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
       <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="D3" s="14"/>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="11">
         <v>3</v>
       </c>
       <c r="H3" s="2">
@@ -2089,17 +2755,17 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" t="s">
         <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" t="s">
-        <v>12</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
@@ -2107,7 +2773,7 @@
       <c r="G4" s="2">
         <v>0</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="11">
         <v>1</v>
       </c>
       <c r="I4">
@@ -2117,85 +2783,609 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C15" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D13:E13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F6E572-767F-476F-98F5-813B9CCB837F}">
+  <dimension ref="A1:L32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.54296875" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" customWidth="1"/>
+    <col min="9" max="9" width="18.36328125" customWidth="1"/>
+    <col min="10" max="10" width="11.90625" customWidth="1"/>
+    <col min="11" max="11" width="11.453125" customWidth="1"/>
+    <col min="12" max="12" width="9.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="20"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="3">
+        <f>COUNTIF($B$1:$B$15,D3)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="3">
+        <f>COUNTIF($B$1:$B$15,D4)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="3">
+        <f>SUM(E3:E4)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>37</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="20"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="21">
+        <f>-(9/14)*LOG(9/14,2)</f>
+        <v>0.40977637753840185</v>
+      </c>
+      <c r="G8" s="22" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(E8)</f>
+        <v>=-(9/14)*LOG(9/14,2)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="21">
+        <f>-(5/14)*LOG(5/14, 2)</f>
+        <v>0.53050958113222912</v>
+      </c>
+      <c r="G9" s="22" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(E9)</f>
+        <v>=-(5/14)*LOG(5/14, 2)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="24">
+        <f>SUM(E8:E9)</f>
+        <v>0.94028595867063092</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="I12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="3">
+        <f>COUNTIF($A$1:$A$15,I12)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="3">
+        <f>COUNTIFS($A$1:$A$15,$I$12,$B$1:$B$15,I13)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="I14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="3">
+        <f>COUNTIFS($A$1:$A$15,$I$12,$B$1:$B$15,I14)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="3">
+        <f>COUNTIF($A$1:$A$15,D15)</f>
+        <v>5</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15" s="21">
+        <f>-(J13/J12)*LOG(J13/J12,2)</f>
+        <v>0.44217935649972373</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="3">
+        <f>COUNTIFS($A$1:$A$15,$D$15,$B$1:$B$15,D16)</f>
+        <v>2</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" s="21">
+        <f>-(J14/J12)*LOG(2/5,2)</f>
+        <v>0.52877123795494485</v>
+      </c>
+    </row>
+    <row r="17" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="3">
+        <f>COUNTIFS($A$1:$A$15,$D$15,$B$1:$B$15,D17)</f>
+        <v>3</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17" s="26">
+        <f>SUM(J15:J16)</f>
+        <v>0.97095059445466858</v>
+      </c>
+    </row>
+    <row r="18" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D18" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="21">
+        <f>-(E16/$E$15)*LOG(E16/$E$15,2)</f>
+        <v>0.52877123795494485</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D19" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="21">
+        <f>-(E17/$E$15)*LOG(E17/$E$15,2)</f>
+        <v>0.44217935649972373</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J19" t="s">
+        <v>57</v>
+      </c>
+      <c r="K19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D20" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="26">
+        <f>SUM(E18:E19)</f>
+        <v>0.97095059445466858</v>
+      </c>
+      <c r="I20" t="s">
+        <v>53</v>
+      </c>
+      <c r="J20" s="19">
+        <f>E10</f>
+        <v>0.94028595867063092</v>
+      </c>
+      <c r="K20">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
+    <row r="21" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="I21" t="s">
+        <v>54</v>
+      </c>
+      <c r="J21" s="19">
+        <f>E20</f>
+        <v>0.97095059445466858</v>
+      </c>
+      <c r="K21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D22" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="I22" t="s">
+        <v>55</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="3">
+        <f>COUNTIF($A$1:$A$15,D23)</f>
+        <v>4</v>
+      </c>
+      <c r="I23" t="s">
+        <v>56</v>
+      </c>
+      <c r="J23" s="19">
+        <f>J17</f>
+        <v>0.97095059445466858</v>
+      </c>
+      <c r="K23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="3">
+        <f>COUNTIFS($A$1:$A$15,$D$23,$B$1:$B$15,D24)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D25" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
+      <c r="E25" s="3">
+        <f>COUNTIFS($A$1:$A$15,$D$23,$B$1:$B$15,D25)</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+    </row>
+    <row r="26" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D26" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="21">
+        <f>-(E24/E23)*LOG(E24/E23,2)</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J26">
+        <f>J21*(K21/K20)</f>
+        <v>0.34676806944809591</v>
+      </c>
+    </row>
+    <row r="27" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D27" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="21">
+        <v>0</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D28" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="26">
+        <f>SUM(E26:E27)</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J28">
+        <f>J23*(5/14)</f>
+        <v>0.34676806944809591</v>
+      </c>
+    </row>
+    <row r="29" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="I29" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J29">
+        <f>SUM(J26:J28)</f>
+        <v>0.69353613889619181</v>
+      </c>
+    </row>
+    <row r="31" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="I31" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+    </row>
+    <row r="32" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="I32" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="J32" s="28">
+        <f>J20-J29</f>
+        <v>0.24674981977443911</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D2:D4"/>
+  <mergeCells count="8">
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D14:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>